--- a/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
+++ b/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\7. Measurement plan\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Score</t>
   </si>
@@ -179,18 +179,42 @@
     <t>Còn Image capcha</t>
   </si>
   <si>
-    <t>- gồm có 3 page (sẵn sàng,hiện tại,đã xóa)
--Sau khi xử lý thì bị chạy sai page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> đăng nhập 5 lần không thành công sẽ bị khóa tài khoản</t>
+  </si>
+  <si>
+    <t>xóa 1 hoặc nhiều câu hỏi</t>
+  </si>
+  <si>
+    <r>
+      <t>- gồm có 3 page (sẵn sàng,hiện tại,đã xóa)
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sau khi xử lý thì bị chạy sai page</t>
+    </r>
+  </si>
+  <si>
+    <t>on-going (move sang sprint 2)</t>
+  </si>
+  <si>
+    <t>Warnning :</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +297,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -428,7 +459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -534,6 +565,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -547,9 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,50 +979,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1133,7 +1170,9 @@
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
@@ -1185,7 +1224,7 @@
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="32"/>
@@ -1206,24 +1245,24 @@
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="32"/>
+    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -1232,7 +1271,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -1243,7 +1282,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -1252,9 +1291,9 @@
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>22</v>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -1263,9 +1302,9 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="31"/>
@@ -1275,17 +1314,16 @@
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="26"/>
       <c r="C32" s="15"/>
@@ -1295,7 +1333,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="26"/>
       <c r="C33" s="15"/>
@@ -1315,43 +1353,46 @@
       <c r="G34" s="15"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="36" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B37" s="35" t="s">
         <v>40</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1359,12 +1400,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1373,24 +1414,24 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>53</v>
+      <c r="B40" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -1398,12 +1439,12 @@
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>46</v>
+    <row r="42" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -1411,37 +1452,33 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="13"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="12" t="s">
-        <v>9</v>
+      <c r="A48" s="38"/>
+      <c r="B48" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
@@ -1453,24 +1490,27 @@
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="13"/>
+      <c r="D52" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="14"/>
+      <c r="D53" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B4:G4"/>

--- a/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
+++ b/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Score</t>
   </si>
@@ -74,33 +74,15 @@
     <t>Trả lời câu hỏi (Lưu tạm)</t>
   </si>
   <si>
-    <t>Tìm kiếm câu hỏi</t>
-  </si>
-  <si>
-    <t>Đăng câu hỏi (bộ từ điển)</t>
-  </si>
-  <si>
     <t>Hạ câu hỏi (bộ từ điển)</t>
   </si>
   <si>
     <t>Khôi phục câu hỏi (bộ từ điển)</t>
   </si>
   <si>
-    <t>Tạo index</t>
-  </si>
-  <si>
-    <t>Trợ giúp</t>
-  </si>
-  <si>
     <t>Xem thông tin người dùng</t>
   </si>
   <si>
-    <t>Tạo câu hỏi</t>
-  </si>
-  <si>
-    <t>Đưa vào bộ từ điển</t>
-  </si>
-  <si>
     <t>Xóa câu hỏi</t>
   </si>
   <si>
@@ -125,27 +107,15 @@
     <t>Xem danh sách câu hỏi đã xóa</t>
   </si>
   <si>
-    <t>Cập nhật index</t>
-  </si>
-  <si>
     <t>Đăng kí</t>
   </si>
   <si>
-    <t xml:space="preserve">Tìm kiếm câu hỏi intranet </t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>tạo câu hỏi-câu trả lời lưu vào bộ từ điển</t>
-  </si>
-  <si>
     <t>Lưu bản tin trên intranet</t>
   </si>
   <si>
-    <t>1 giây với số lượng ít hơn 10000 mẫu tin trong database intranet</t>
-  </si>
-  <si>
     <t>viên tạo bản tin và khi lưu xuống công cụ soạn tin trên intranet ít nhất là 2 giây</t>
   </si>
   <si>
@@ -155,21 +125,12 @@
     <t>mật khẩu phải được mã hóa (MD5) và được lưu xuống database intranet</t>
   </si>
   <si>
-    <t xml:space="preserve">Xác thực người dùng </t>
-  </si>
-  <si>
     <t>Giao diện trực quan</t>
   </si>
   <si>
     <t xml:space="preserve">dễ sử dụng </t>
   </si>
   <si>
-    <t>Trả về nội dung tương ứng với từ khóa tìm kiếm</t>
-  </si>
-  <si>
-    <t>trả về nội dung tương ứng với từ khóa cần tìm kiếm với độ tin cậy hơn 80% từ khóa liên quan trong danh sách index được tạo</t>
-  </si>
-  <si>
     <t>Đăng xuất</t>
   </si>
   <si>
@@ -179,42 +140,18 @@
     <t>Còn Image capcha</t>
   </si>
   <si>
-    <t xml:space="preserve"> đăng nhập 5 lần không thành công sẽ bị khóa tài khoản</t>
-  </si>
-  <si>
     <t>xóa 1 hoặc nhiều câu hỏi</t>
   </si>
   <si>
-    <r>
-      <t>- gồm có 3 page (sẵn sàng,hiện tại,đã xóa)
--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sau khi xử lý thì bị chạy sai page</t>
-    </r>
-  </si>
-  <si>
-    <t>on-going (move sang sprint 2)</t>
-  </si>
-  <si>
-    <t>Warnning :</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t xml:space="preserve">- gồm có 3 page (sẵn sàng,hiện tại,đã xóa)
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,21 +228,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +260,6 @@
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -459,7 +377,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -555,24 +473,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -962,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,50 +881,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1054,7 +956,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="31"/>
@@ -1065,7 +967,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -1076,10 +978,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -1089,7 +991,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -1100,7 +1002,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -1111,7 +1013,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -1120,12 +1022,12 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1135,7 +1037,7 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -1168,10 +1070,10 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -1181,7 +1083,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -1190,9 +1092,9 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>17</v>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -1201,9 +1103,9 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>25</v>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -1212,9 +1114,9 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -1224,8 +1126,8 @@
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>18</v>
+      <c r="A23" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -1235,282 +1137,143 @@
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-    </row>
-    <row r="41" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="12" t="s">
+      <c r="B32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="12" t="s">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="14"/>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B4:G4"/>

--- a/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
+++ b/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Score</t>
   </si>
@@ -110,41 +110,25 @@
     <t>Đăng kí</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Lưu bản tin trên intranet</t>
-  </si>
-  <si>
-    <t>viên tạo bản tin và khi lưu xuống công cụ soạn tin trên intranet ít nhất là 2 giây</t>
-  </si>
-  <si>
-    <t>Mã hóa mật khẩu</t>
-  </si>
-  <si>
-    <t>mật khẩu phải được mã hóa (MD5) và được lưu xuống database intranet</t>
-  </si>
-  <si>
-    <t>Giao diện trực quan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dễ sử dụng </t>
-  </si>
-  <si>
     <t>Đăng xuất</t>
   </si>
   <si>
     <t>Khôi phục câu hỏi đã xóa</t>
   </si>
   <si>
-    <t>Còn Image capcha</t>
-  </si>
-  <si>
-    <t>xóa 1 hoặc nhiều câu hỏi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- gồm có 3 page (sẵn sàng,hiện tại,đã xóa)
-</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Session cho trang login/log out</t>
+  </si>
+  <si>
+    <t>Check box cho danh sách câu hỏi</t>
+  </si>
+  <si>
+    <t>Hiển thị loading trang</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -377,7 +361,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -471,9 +455,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,14 +847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="10" customWidth="1"/>
     <col min="3" max="4" width="20.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="26.5703125" style="4" customWidth="1"/>
@@ -881,50 +862,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
@@ -946,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -958,7 +939,9 @@
       <c r="A8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -967,9 +950,11 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -981,7 +966,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -993,7 +978,9 @@
       <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -1004,7 +991,9 @@
       <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -1015,19 +1004,21 @@
       <c r="A13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>40</v>
+      <c r="B14" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1039,7 +1030,9 @@
       <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -1050,7 +1043,9 @@
       <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -1061,7 +1056,9 @@
       <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
@@ -1073,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -1083,9 +1080,11 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
@@ -1096,7 +1095,9 @@
       <c r="A20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -1107,7 +1108,9 @@
       <c r="A21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -1118,7 +1121,9 @@
       <c r="A22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -1129,7 +1134,9 @@
       <c r="A23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -1137,33 +1144,45 @@
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,36 +1206,28 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>31</v>
-      </c>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1224,12 +1235,8 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -1264,8 +1271,8 @@
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E46" s="14"/>
